--- a/Daily Activities.xlsx
+++ b/Daily Activities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHC000948\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHC000948\OneDrive\Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_7287913530ACD5C33AFDB65A2888222F20D0AEB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEE3676-338B-4E04-9E60-C806452EF78D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arabic" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Excel" sheetId="2" r:id="rId3"/>
     <sheet name="Python" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="219">
   <si>
     <t>Arabic Lesson from Nouman Ali Khan YouTube Series</t>
   </si>
@@ -233,6 +234,43 @@
 1. Many words that ends with 
   آء ى ة
 2.Broken plurals can be a fake fem.</t>
+  </si>
+  <si>
+    <t>The House of Allah</t>
+  </si>
+  <si>
+    <t>The word before "OF" is called "MUDAF"
+The word after "OF" is called "MUDAF ILAIH"</t>
+  </si>
+  <si>
+    <t>The Religion of Islam</t>
+  </si>
+  <si>
+    <t>My Car - Car of Mine</t>
+  </si>
+  <si>
+    <t>Allah's Book - Book of Allah</t>
+  </si>
+  <si>
+    <t>His Pen - Pen of His</t>
+  </si>
+  <si>
+    <t>Mariam's Glasses - Glasses of Mariam</t>
+  </si>
+  <si>
+    <t>MUDAF - LIGHT/NO AL</t>
+  </si>
+  <si>
+    <t>MUDAF ILAIH - has to be JARR</t>
+  </si>
+  <si>
+    <t>Learned about Harf</t>
+  </si>
+  <si>
+    <t>Harf that comes before Jarr</t>
+  </si>
+  <si>
+    <t>Harf that comes before Nasb</t>
   </si>
   <si>
     <t>Arabic Vocabulary</t>
@@ -648,7 +686,16 @@
 Ensure date fields are formatted as dates.</t>
   </si>
   <si>
+    <t>Python Official Documentation</t>
+  </si>
+  <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Think like python</t>
+  </si>
+  <si>
+    <t>Online text book</t>
   </si>
   <si>
     <t>Python Programming for Everybody</t>
@@ -887,53 +934,16 @@
   <si>
     <t>Tuples</t>
   </si>
-  <si>
-    <t>The House of Allah</t>
-  </si>
-  <si>
-    <t>The Religion of Islam</t>
-  </si>
-  <si>
-    <t>My Car - Car of Mine</t>
-  </si>
-  <si>
-    <t>Allah's Book - Book of Allah</t>
-  </si>
-  <si>
-    <t>His Pen - Pen of His</t>
-  </si>
-  <si>
-    <t>Mariam's Glasses - Glasses of Mariam</t>
-  </si>
-  <si>
-    <t>The word before "OF" is called "MUDAF"
-The word after "OF" is called "MUDAF ILAIH"</t>
-  </si>
-  <si>
-    <t>MUDAF - LIGHT/NO AL</t>
-  </si>
-  <si>
-    <t>MUDAF ILAIH - has to be JARR</t>
-  </si>
-  <si>
-    <t>Learned about Harf</t>
-  </si>
-  <si>
-    <t>Harf that comes before Jarr</t>
-  </si>
-  <si>
-    <t>Harf that comes before Nasb</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1240,7 +1250,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1319,6 +1329,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="10" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,18 +1344,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="10" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,6 +1368,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
@@ -1401,7 +1415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1729,41 +1749,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="36.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42">
+    <row r="1" spans="1:2" ht="21" customHeight="1">
+      <c r="A1" s="36">
         <v>44309</v>
       </c>
-      <c r="B1" s="42"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="B1" s="36"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="42"/>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1771,20 +1791,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1792,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1800,7 +1820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1808,12 +1828,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="140.44999999999999">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="31.15">
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
@@ -1829,7 +1849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="46.9">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1837,42 +1857,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="46.9">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1880,7 +1900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="31.15">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1888,7 +1908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1896,25 +1916,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+    <row r="31" spans="1:2" ht="18.600000000000001" customHeight="1"/>
+    <row r="32" spans="1:2" ht="18.600000000000001">
+      <c r="A32" s="36">
         <v>44310</v>
       </c>
-      <c r="B32" s="42"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1922,12 +1942,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="156" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="156">
       <c r="A38" s="12" t="s">
         <v>34</v>
       </c>
@@ -1935,13 +1955,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+    <row r="40" spans="1:2" ht="18.600000000000001">
+      <c r="A40" s="36">
         <v>44312</v>
       </c>
-      <c r="B40" s="42"/>
-    </row>
-    <row r="42" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="B40" s="36"/>
+    </row>
+    <row r="42" spans="1:2" ht="78">
       <c r="A42" s="12" t="s">
         <v>24</v>
       </c>
@@ -1949,7 +1969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="124.9">
       <c r="A44" s="10" t="s">
         <v>37</v>
       </c>
@@ -1957,7 +1977,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="46.9">
       <c r="A46" s="12" t="s">
         <v>39</v>
       </c>
@@ -1965,13 +1985,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="40">
+    <row r="48" spans="1:2">
+      <c r="A48" s="41">
         <v>44314</v>
       </c>
-      <c r="B48" s="40"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="41"/>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -1979,15 +1999,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="140.44999999999999">
       <c r="A54" s="12" t="s">
         <v>44</v>
       </c>
@@ -1995,17 +2015,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="8" t="s">
         <v>48</v>
       </c>
@@ -2013,101 +2033,101 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="62.45">
       <c r="B60" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="39">
+    <row r="62" spans="1:2" ht="18">
+      <c r="A62" s="37">
         <v>44322</v>
       </c>
-      <c r="B62" s="39"/>
-    </row>
-    <row r="63" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="37"/>
+    </row>
+    <row r="63" spans="1:2" ht="16.149999999999999" thickBot="1"/>
+    <row r="64" spans="1:2">
       <c r="A64" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B65" s="37"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B65" s="39"/>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" s="37"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B66" s="39"/>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="B67" s="37"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="B67" s="39"/>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" s="37"/>
-    </row>
-    <row r="69" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="B68" s="39"/>
+    </row>
+    <row r="69" spans="1:2" ht="16.149999999999999" thickBot="1">
       <c r="A69" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="B69" s="38"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="B69" s="40"/>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="39">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18">
+      <c r="A74" s="37">
         <v>44325</v>
       </c>
-      <c r="B74" s="39"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="37"/>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="8" t="s">
-        <v>215</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="B64:B69"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A40:B40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B35" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2116,155 +2136,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="43" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B1" s="43"/>
     </row>
-    <row r="2" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19.899999999999999">
       <c r="A2" s="13" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.899999999999999">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.899999999999999">
       <c r="A4" s="13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.899999999999999">
       <c r="A5" s="13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.899999999999999">
       <c r="A6" s="13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.899999999999999">
       <c r="A7" s="13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.899999999999999">
       <c r="A8" s="13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.899999999999999">
       <c r="A9" s="13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.899999999999999">
       <c r="A10" s="13" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19.899999999999999">
       <c r="A11" s="13" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.899999999999999">
       <c r="A12" s="13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.899999999999999">
       <c r="A13" s="13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.899999999999999">
       <c r="A14" s="13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.899999999999999">
       <c r="A15" s="13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.899999999999999">
       <c r="A16" s="13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.899999999999999">
       <c r="A17" s="13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.899999999999999">
       <c r="A18" s="13" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2276,32 +2296,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" customHeight="1">
       <c r="A1" s="44">
         <v>44310</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="3" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="93.6">
       <c r="A3" s="19" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2309,12 +2329,12 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="62.45">
       <c r="A4" s="19" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2322,12 +2342,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="109.15">
       <c r="A5" s="19" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2335,7 +2355,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="20"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2344,12 +2364,12 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2357,7 +2377,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2365,12 +2385,12 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="46.9">
       <c r="A9" s="23" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2378,12 +2398,12 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="62.45">
       <c r="A10" s="23" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2391,12 +2411,12 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="124.9">
       <c r="A11" s="23" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2404,19 +2424,19 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" customHeight="1">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="202.9">
       <c r="A13" s="24" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2424,7 +2444,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="20"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2433,12 +2453,12 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="46.9">
       <c r="A15" s="20" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2446,12 +2466,12 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="31.15">
       <c r="A16" s="24" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2459,115 +2479,115 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="18" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="140.44999999999999">
       <c r="A18" s="25" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="78">
       <c r="A20" s="10" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="124.9">
       <c r="A21" s="10" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="93.6">
       <c r="A22" s="10" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="109.15">
       <c r="A24" s="10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="156" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="156">
       <c r="A27" s="10" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="78">
       <c r="A28" s="10" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="62.45">
       <c r="A29" s="10" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="93.6">
       <c r="A31" s="10" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="10"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="124.9">
       <c r="A33" s="10" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="93.6">
       <c r="A34" s="10" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2580,461 +2600,479 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="33.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="8"/>
+    <col min="5" max="5" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="45">
         <v>44311</v>
       </c>
       <c r="B1" s="45"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="26" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="129" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46.9">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.15">
       <c r="A16" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="78" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="78">
       <c r="A23" s="10" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.15">
       <c r="A24" s="10" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="93.6">
       <c r="A25" s="10" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="46.9">
       <c r="A27" s="10" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="C28" s="8" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="11" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="B30" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="B31" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="B32" s="27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="62.45">
       <c r="A34" s="30" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="156" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="156">
       <c r="A35" s="30" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="31.15">
       <c r="A36" s="48" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="46.9">
       <c r="A37" s="48"/>
       <c r="B37" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.45" customHeight="1">
       <c r="A39" s="46">
         <v>44313</v>
       </c>
       <c r="B39" s="46"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="29" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="B44" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="B45" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="29" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="B50" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="B55" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="29" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="B60" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="B61" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="B62" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="47">
         <v>44315</v>
       </c>
       <c r="B64" s="47"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="29" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="B69" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="29" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="B74" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="29" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="29" t="s">
-        <v>182</v>
-      </c>
       <c r="B78" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="29" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
-        <v>182</v>
-      </c>
       <c r="B84" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="B85" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="B86" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="29" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B29" r:id="rId2"/>
-    <hyperlink ref="B30" r:id="rId3"/>
-    <hyperlink ref="B31" r:id="rId4"/>
-    <hyperlink ref="B32" r:id="rId5"/>
-    <hyperlink ref="B43" r:id="rId6"/>
-    <hyperlink ref="B44" r:id="rId7"/>
-    <hyperlink ref="B45" r:id="rId8"/>
-    <hyperlink ref="B49" r:id="rId9"/>
-    <hyperlink ref="B50" r:id="rId10"/>
-    <hyperlink ref="B54" r:id="rId11"/>
-    <hyperlink ref="B55" r:id="rId12"/>
-    <hyperlink ref="B59" r:id="rId13"/>
-    <hyperlink ref="B60" r:id="rId14"/>
-    <hyperlink ref="B61" r:id="rId15"/>
-    <hyperlink ref="B62" r:id="rId16"/>
-    <hyperlink ref="B68" r:id="rId17"/>
-    <hyperlink ref="B69" r:id="rId18"/>
-    <hyperlink ref="B73" r:id="rId19"/>
-    <hyperlink ref="B74" r:id="rId20"/>
-    <hyperlink ref="B78" r:id="rId21"/>
-    <hyperlink ref="B79" r:id="rId22"/>
-    <hyperlink ref="B80" r:id="rId23"/>
-    <hyperlink ref="B84" r:id="rId24"/>
-    <hyperlink ref="B85" r:id="rId25"/>
-    <hyperlink ref="B86" r:id="rId26"/>
-    <hyperlink ref="B90" r:id="rId27"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B30" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B31" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B32" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B43" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B44" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B45" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B49" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B50" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B54" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B55" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B59" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B60" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B61" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B62" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B68" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="B69" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="B73" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="B74" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="B78" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="B79" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="B80" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="B84" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="B85" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="B86" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B90" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="E1:H1" r:id="rId28" display="Python Official Documentation" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="F3" r:id="rId29" xr:uid="{ABD7E9DE-D0A4-4B2D-A984-F27E87CBE71A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>